--- a/linsley_postdoc/coding_practice/data_reproduction/T_cell_characteristics_associated_with_toxicity_to_immune_checkpoint_blockade_in_patients_with_melanoma/raw_data/supp_tables.xlsx
+++ b/linsley_postdoc/coding_practice/data_reproduction/T_cell_characteristics_associated_with_toxicity_to_immune_checkpoint_blockade_in_patients_with_melanoma/raw_data/supp_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbottorff\Documents\git\bottorffdocs\linsley_postdoc\coding_practice\data_reproduction\T_cell_characteristics_associated_with_toxicity_to_immune_checkpoint_blockade_in_patients_with_melanoma\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6736149-7EA6-4CA5-A00C-39E60C92E7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6CEE4A-74E5-452E-A479-72D755E68423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="32" r:id="rId1"/>
@@ -18,32 +18,33 @@
     <sheet name="Table S2" sheetId="1" r:id="rId3"/>
     <sheet name="Table S3" sheetId="2" r:id="rId4"/>
     <sheet name="cleaned_table_s3" sheetId="36" r:id="rId5"/>
-    <sheet name="Table S4" sheetId="3" r:id="rId6"/>
-    <sheet name="Table S5" sheetId="4" r:id="rId7"/>
-    <sheet name="Table S6" sheetId="34" r:id="rId8"/>
-    <sheet name="Table S7" sheetId="5" r:id="rId9"/>
-    <sheet name="Table S8" sheetId="6" r:id="rId10"/>
-    <sheet name="Table S9" sheetId="7" r:id="rId11"/>
-    <sheet name="Table S10" sheetId="33" r:id="rId12"/>
-    <sheet name="Table S11" sheetId="8" r:id="rId13"/>
-    <sheet name="cleaned_table_s1" sheetId="35" r:id="rId14"/>
-    <sheet name="Table S12" sheetId="11" r:id="rId15"/>
-    <sheet name="Table S13" sheetId="25" r:id="rId16"/>
-    <sheet name="Table S14" sheetId="9" r:id="rId17"/>
-    <sheet name="Table S15" sheetId="12" r:id="rId18"/>
-    <sheet name="Table S16" sheetId="26" r:id="rId19"/>
-    <sheet name="Table S17" sheetId="10" r:id="rId20"/>
-    <sheet name="Table S18" sheetId="23" r:id="rId21"/>
-    <sheet name="Table S19" sheetId="28" r:id="rId22"/>
-    <sheet name="Table S20" sheetId="14" r:id="rId23"/>
+    <sheet name="Sheet1" sheetId="37" r:id="rId6"/>
+    <sheet name="Table S4" sheetId="3" r:id="rId7"/>
+    <sheet name="Table S5" sheetId="4" r:id="rId8"/>
+    <sheet name="Table S6" sheetId="34" r:id="rId9"/>
+    <sheet name="Table S7" sheetId="5" r:id="rId10"/>
+    <sheet name="Table S8" sheetId="6" r:id="rId11"/>
+    <sheet name="Table S9" sheetId="7" r:id="rId12"/>
+    <sheet name="Table S10" sheetId="33" r:id="rId13"/>
+    <sheet name="Table S11" sheetId="8" r:id="rId14"/>
+    <sheet name="cleaned_table_s1" sheetId="35" r:id="rId15"/>
+    <sheet name="Table S12" sheetId="11" r:id="rId16"/>
+    <sheet name="Table S13" sheetId="25" r:id="rId17"/>
+    <sheet name="Table S14" sheetId="9" r:id="rId18"/>
+    <sheet name="Table S15" sheetId="12" r:id="rId19"/>
+    <sheet name="Table S16" sheetId="26" r:id="rId20"/>
+    <sheet name="Table S17" sheetId="10" r:id="rId21"/>
+    <sheet name="Table S18" sheetId="23" r:id="rId22"/>
+    <sheet name="Table S19" sheetId="28" r:id="rId23"/>
+    <sheet name="Table S20" sheetId="14" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Table S1'!$B$5:$L$82</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'Table S15'!$A$5:$Q$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'Table S18'!$B$5:$V$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'Table S15'!$A$5:$Q$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'Table S18'!$B$5:$V$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Table S3'!$A$5:$T$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Table S8'!$A$5:$N$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Table S9'!$B$5:$U$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Table S8'!$A$5:$N$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Table S9'!$B$5:$U$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="828">
   <si>
     <t>Characteristics</t>
   </si>
@@ -6203,6 +6204,57 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>ICI regimen</t>
+  </si>
+  <si>
+    <t>Prior ICI treatment</t>
+  </si>
+  <si>
+    <t>Highest irAE grade</t>
+  </si>
+  <si>
+    <t>Severe irAE status (1=Yes, 0=No)</t>
+  </si>
+  <si>
+    <t>Time to severe irAE or last follow-up (months)</t>
+  </si>
+  <si>
+    <t>Site of highest irAE grade</t>
+  </si>
+  <si>
+    <t>Gastrointestinal (GI) irAE status (1=Yes, 0=No)</t>
+  </si>
+  <si>
+    <t>No. of grade 2+ irAEs</t>
+  </si>
+  <si>
+    <t>ICI response status</t>
+  </si>
+  <si>
+    <t>Total follow-up time (months)</t>
+  </si>
+  <si>
+    <t>Effector memory CD4 T cells (CyTOF)</t>
+  </si>
+  <si>
+    <t>CD4 T 5 + 3 activated (scRNA-seq)</t>
+  </si>
+  <si>
+    <t>CD4 T 5 + 3 cluster (scRNA-seq)</t>
+  </si>
+  <si>
+    <t>ICI Regimen</t>
+  </si>
+  <si>
+    <t>scRNA-seq</t>
+  </si>
+  <si>
+    <t>immuno-SEQ</t>
+  </si>
+  <si>
+    <t>Flow cytometry</t>
   </si>
 </sst>
 </file>
@@ -7730,6 +7782,24 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7779,24 +7849,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8457,6 +8509,565 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="98" customWidth="1"/>
+    <col min="2" max="2" width="38.5" style="98" customWidth="1"/>
+    <col min="3" max="3" width="34.625" style="98" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="98"/>
+    <col min="5" max="5" width="38.875" style="98" customWidth="1"/>
+    <col min="6" max="6" width="35.125" style="98" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="336" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" s="337"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="338" t="s">
+        <v>254</v>
+      </c>
+      <c r="F5" s="339"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="146" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="318" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="147" t="s">
+        <v>501</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="148" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="149"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>475</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="167" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="166"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="F9" s="166"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="165" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="166" t="s">
+        <v>583</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="242" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="166" t="s">
+        <v>582</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="58"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="58"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>478</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="150"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>476</v>
+      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>482</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="F23" s="58"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>650</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" s="58" t="s">
+        <v>484</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="C25" s="58" t="s">
+        <v>651</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>481</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="167" t="s">
+        <v>542</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="151" t="s">
+        <v>485</v>
+      </c>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>486</v>
+      </c>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="F30" s="29"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>264</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>483</v>
+      </c>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="152" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="152" t="s">
+        <v>487</v>
+      </c>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="82" t="s">
+        <v>544</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B35" s="82" t="s">
+        <v>545</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B36" s="82" t="s">
+        <v>729</v>
+      </c>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B37" s="82" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B38" s="82" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="82" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>716</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M62"/>
   <sheetViews>
@@ -10700,22 +11311,22 @@
     <sortCondition ref="B5:B55"/>
   </sortState>
   <conditionalFormatting sqref="B63:B1048576 B1:B60">
-    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:C61">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E62:M62">
-    <cfRule type="duplicateValues" dxfId="3" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="17"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:U115"/>
   <sheetViews>
@@ -14355,7 +14966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:E15"/>
   <sheetViews>
@@ -14526,7 +15137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -14600,16 +15211,16 @@
       <c r="B5" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="330" t="s">
+      <c r="C5" s="336" t="s">
         <v>253</v>
       </c>
-      <c r="D5" s="331"/>
-      <c r="E5" s="330" t="s">
+      <c r="D5" s="337"/>
+      <c r="E5" s="336" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="331"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="340"/>
+      <c r="H5" s="340"/>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
@@ -14739,61 +15350,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5BD47D-5A45-4423-A4CD-A34240BBC7E2}">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" style="339" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="339" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="339" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.625" style="339" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.75" style="339" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.375" style="339" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="339" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.25" style="339" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" style="339" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="339"/>
+    <col min="1" max="1" width="23.25" style="322" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="322" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="322" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.625" style="322" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.75" style="322" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="322" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="322" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.25" style="322" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="322" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="322"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
-        <v>526</v>
+        <v>20</v>
       </c>
       <c r="B1" s="86" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>527</v>
+        <v>824</v>
       </c>
       <c r="D1" s="191" t="s">
-        <v>528</v>
+        <v>812</v>
       </c>
       <c r="E1" s="86" t="s">
         <v>319</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>529</v>
+        <v>816</v>
       </c>
       <c r="G1" s="86" t="s">
-        <v>530</v>
+        <v>696</v>
       </c>
       <c r="H1" s="86" t="s">
-        <v>531</v>
+        <v>825</v>
       </c>
       <c r="I1" s="86" t="s">
-        <v>532</v>
+        <v>434</v>
       </c>
       <c r="J1" s="86" t="s">
-        <v>533</v>
+        <v>826</v>
       </c>
       <c r="K1" s="86" t="s">
-        <v>534</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
@@ -14815,7 +15426,7 @@
       <c r="F2" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="340">
+      <c r="G2" s="323">
         <v>1</v>
       </c>
       <c r="H2" s="182">
@@ -14850,7 +15461,7 @@
       <c r="F3" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="341">
+      <c r="G3" s="324">
         <v>1</v>
       </c>
       <c r="H3" s="185">
@@ -14885,7 +15496,7 @@
       <c r="F4" s="185" t="s">
         <v>489</v>
       </c>
-      <c r="G4" s="341">
+      <c r="G4" s="324">
         <v>1</v>
       </c>
       <c r="H4" s="185">
@@ -14920,7 +15531,7 @@
       <c r="F5" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="341">
+      <c r="G5" s="324">
         <v>1</v>
       </c>
       <c r="H5" s="185">
@@ -14955,7 +15566,7 @@
       <c r="F6" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="341">
+      <c r="G6" s="324">
         <v>1</v>
       </c>
       <c r="H6" s="185">
@@ -14990,7 +15601,7 @@
       <c r="F7" s="185" t="s">
         <v>490</v>
       </c>
-      <c r="G7" s="341">
+      <c r="G7" s="324">
         <v>1</v>
       </c>
       <c r="H7" s="185">
@@ -15025,7 +15636,7 @@
       <c r="F8" s="236" t="s">
         <v>599</v>
       </c>
-      <c r="G8" s="341">
+      <c r="G8" s="324">
         <v>1</v>
       </c>
       <c r="H8" s="185">
@@ -15060,7 +15671,7 @@
       <c r="F9" s="185" t="s">
         <v>327</v>
       </c>
-      <c r="G9" s="341">
+      <c r="G9" s="324">
         <v>1</v>
       </c>
       <c r="H9" s="185">
@@ -15095,7 +15706,7 @@
       <c r="F10" s="185" t="s">
         <v>491</v>
       </c>
-      <c r="G10" s="341">
+      <c r="G10" s="324">
         <v>1</v>
       </c>
       <c r="H10" s="185">
@@ -15130,7 +15741,7 @@
       <c r="F11" s="185" t="s">
         <v>328</v>
       </c>
-      <c r="G11" s="341">
+      <c r="G11" s="324">
         <v>1</v>
       </c>
       <c r="H11" s="185">
@@ -15165,7 +15776,7 @@
       <c r="F12" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G12" s="341">
+      <c r="G12" s="324">
         <v>1</v>
       </c>
       <c r="H12" s="185">
@@ -15200,7 +15811,7 @@
       <c r="F13" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="341">
+      <c r="G13" s="324">
         <v>1</v>
       </c>
       <c r="H13" s="185">
@@ -15235,7 +15846,7 @@
       <c r="F14" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="341">
+      <c r="G14" s="324">
         <v>1</v>
       </c>
       <c r="H14" s="185">
@@ -15270,7 +15881,7 @@
       <c r="F15" s="185" t="s">
         <v>334</v>
       </c>
-      <c r="G15" s="341">
+      <c r="G15" s="324">
         <v>1</v>
       </c>
       <c r="H15" s="185">
@@ -15305,7 +15916,7 @@
       <c r="F16" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="G16" s="341">
+      <c r="G16" s="324">
         <v>1</v>
       </c>
       <c r="H16" s="185">
@@ -15340,7 +15951,7 @@
       <c r="F17" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G17" s="341">
+      <c r="G17" s="324">
         <v>1</v>
       </c>
       <c r="H17" s="185">
@@ -15375,7 +15986,7 @@
       <c r="F18" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G18" s="341">
+      <c r="G18" s="324">
         <v>1</v>
       </c>
       <c r="H18" s="185">
@@ -15410,7 +16021,7 @@
       <c r="F19" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="341">
+      <c r="G19" s="324">
         <v>1</v>
       </c>
       <c r="H19" s="185">
@@ -15445,7 +16056,7 @@
       <c r="F20" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="G20" s="341">
+      <c r="G20" s="324">
         <v>0</v>
       </c>
       <c r="H20" s="185">
@@ -15480,7 +16091,7 @@
       <c r="F21" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="G21" s="341">
+      <c r="G21" s="324">
         <v>0</v>
       </c>
       <c r="H21" s="185">
@@ -15515,7 +16126,7 @@
       <c r="F22" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="G22" s="341">
+      <c r="G22" s="324">
         <v>0</v>
       </c>
       <c r="H22" s="185">
@@ -15550,7 +16161,7 @@
       <c r="F23" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="341">
+      <c r="G23" s="324">
         <v>0</v>
       </c>
       <c r="H23" s="185">
@@ -15585,7 +16196,7 @@
       <c r="F24" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="341">
+      <c r="G24" s="324">
         <v>0</v>
       </c>
       <c r="H24" s="185">
@@ -15620,7 +16231,7 @@
       <c r="F25" s="185" t="s">
         <v>322</v>
       </c>
-      <c r="G25" s="341">
+      <c r="G25" s="324">
         <v>0</v>
       </c>
       <c r="H25" s="185">
@@ -15655,7 +16266,7 @@
       <c r="F26" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G26" s="341">
+      <c r="G26" s="324">
         <v>0</v>
       </c>
       <c r="H26" s="185">
@@ -15690,7 +16301,7 @@
       <c r="F27" s="185" t="s">
         <v>324</v>
       </c>
-      <c r="G27" s="341">
+      <c r="G27" s="324">
         <v>0</v>
       </c>
       <c r="H27" s="185">
@@ -15725,7 +16336,7 @@
       <c r="F28" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="G28" s="341">
+      <c r="G28" s="324">
         <v>0</v>
       </c>
       <c r="H28" s="185">
@@ -15760,7 +16371,7 @@
       <c r="F29" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G29" s="341">
+      <c r="G29" s="324">
         <v>0</v>
       </c>
       <c r="H29" s="185">
@@ -15795,7 +16406,7 @@
       <c r="F30" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="G30" s="341">
+      <c r="G30" s="324">
         <v>0</v>
       </c>
       <c r="H30" s="185">
@@ -15830,7 +16441,7 @@
       <c r="F31" s="185" t="s">
         <v>326</v>
       </c>
-      <c r="G31" s="341">
+      <c r="G31" s="324">
         <v>0</v>
       </c>
       <c r="H31" s="185">
@@ -15865,7 +16476,7 @@
       <c r="F32" s="185" t="s">
         <v>327</v>
       </c>
-      <c r="G32" s="341">
+      <c r="G32" s="324">
         <v>0</v>
       </c>
       <c r="H32" s="185">
@@ -15900,7 +16511,7 @@
       <c r="F33" s="185" t="s">
         <v>328</v>
       </c>
-      <c r="G33" s="341">
+      <c r="G33" s="324">
         <v>0</v>
       </c>
       <c r="H33" s="185">
@@ -15935,7 +16546,7 @@
       <c r="F34" s="185" t="s">
         <v>330</v>
       </c>
-      <c r="G34" s="341">
+      <c r="G34" s="324">
         <v>0</v>
       </c>
       <c r="H34" s="185">
@@ -15970,7 +16581,7 @@
       <c r="F35" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G35" s="341">
+      <c r="G35" s="324">
         <v>0</v>
       </c>
       <c r="H35" s="185">
@@ -16005,7 +16616,7 @@
       <c r="F36" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G36" s="341">
+      <c r="G36" s="324">
         <v>0</v>
       </c>
       <c r="H36" s="185">
@@ -16040,7 +16651,7 @@
       <c r="F37" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G37" s="341">
+      <c r="G37" s="324">
         <v>0</v>
       </c>
       <c r="H37" s="185">
@@ -16075,7 +16686,7 @@
       <c r="F38" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G38" s="341">
+      <c r="G38" s="324">
         <v>0</v>
       </c>
       <c r="H38" s="185">
@@ -16110,7 +16721,7 @@
       <c r="F39" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="341">
+      <c r="G39" s="324">
         <v>0</v>
       </c>
       <c r="H39" s="185">
@@ -16145,7 +16756,7 @@
       <c r="F40" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G40" s="341">
+      <c r="G40" s="324">
         <v>0</v>
       </c>
       <c r="H40" s="185">
@@ -16180,7 +16791,7 @@
       <c r="F41" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="341">
+      <c r="G41" s="324">
         <v>0</v>
       </c>
       <c r="H41" s="185">
@@ -16215,7 +16826,7 @@
       <c r="F42" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G42" s="341">
+      <c r="G42" s="324">
         <v>0</v>
       </c>
       <c r="H42" s="185">
@@ -16250,7 +16861,7 @@
       <c r="F43" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G43" s="341">
+      <c r="G43" s="324">
         <v>0</v>
       </c>
       <c r="H43" s="185">
@@ -16285,7 +16896,7 @@
       <c r="F44" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="341">
+      <c r="G44" s="324">
         <v>0</v>
       </c>
       <c r="H44" s="185">
@@ -16320,7 +16931,7 @@
       <c r="F45" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G45" s="341">
+      <c r="G45" s="324">
         <v>0</v>
       </c>
       <c r="H45" s="185">
@@ -16355,7 +16966,7 @@
       <c r="F46" s="185" t="s">
         <v>334</v>
       </c>
-      <c r="G46" s="341">
+      <c r="G46" s="324">
         <v>0</v>
       </c>
       <c r="H46" s="185">
@@ -16390,7 +17001,7 @@
       <c r="F47" s="185" t="s">
         <v>335</v>
       </c>
-      <c r="G47" s="341">
+      <c r="G47" s="324">
         <v>0</v>
       </c>
       <c r="H47" s="185">
@@ -16425,7 +17036,7 @@
       <c r="F48" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="341">
+      <c r="G48" s="324">
         <v>0</v>
       </c>
       <c r="H48" s="185">
@@ -16460,7 +17071,7 @@
       <c r="F49" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G49" s="341">
+      <c r="G49" s="324">
         <v>0</v>
       </c>
       <c r="H49" s="185">
@@ -16495,7 +17106,7 @@
       <c r="F50" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G50" s="341">
+      <c r="G50" s="324">
         <v>0</v>
       </c>
       <c r="H50" s="185">
@@ -16530,7 +17141,7 @@
       <c r="F51" s="185" t="s">
         <v>336</v>
       </c>
-      <c r="G51" s="341">
+      <c r="G51" s="324">
         <v>0</v>
       </c>
       <c r="H51" s="185">
@@ -16565,7 +17176,7 @@
       <c r="F52" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="G52" s="341">
+      <c r="G52" s="324">
         <v>0</v>
       </c>
       <c r="H52" s="185">
@@ -16600,7 +17211,7 @@
       <c r="F53" s="185" t="s">
         <v>322</v>
       </c>
-      <c r="G53" s="341">
+      <c r="G53" s="324">
         <v>0</v>
       </c>
       <c r="H53" s="185">
@@ -16635,7 +17246,7 @@
       <c r="F54" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="G54" s="341">
+      <c r="G54" s="324">
         <v>0</v>
       </c>
       <c r="H54" s="185">
@@ -16670,7 +17281,7 @@
       <c r="F55" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G55" s="341">
+      <c r="G55" s="324">
         <v>0</v>
       </c>
       <c r="H55" s="185">
@@ -16705,7 +17316,7 @@
       <c r="F56" s="185" t="s">
         <v>28</v>
       </c>
-      <c r="G56" s="341">
+      <c r="G56" s="324">
         <v>0</v>
       </c>
       <c r="H56" s="185">
@@ -16740,7 +17351,7 @@
       <c r="F57" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G57" s="341">
+      <c r="G57" s="324">
         <v>0</v>
       </c>
       <c r="H57" s="185">
@@ -16775,7 +17386,7 @@
       <c r="F58" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G58" s="341">
+      <c r="G58" s="324">
         <v>0</v>
       </c>
       <c r="H58" s="185">
@@ -16810,7 +17421,7 @@
       <c r="F59" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="G59" s="341">
+      <c r="G59" s="324">
         <v>0</v>
       </c>
       <c r="H59" s="185">
@@ -16845,7 +17456,7 @@
       <c r="F60" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G60" s="341">
+      <c r="G60" s="324">
         <v>0</v>
       </c>
       <c r="H60" s="185">
@@ -16880,7 +17491,7 @@
       <c r="F61" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G61" s="341">
+      <c r="G61" s="324">
         <v>0</v>
       </c>
       <c r="H61" s="185">
@@ -16915,7 +17526,7 @@
       <c r="F62" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G62" s="341">
+      <c r="G62" s="324">
         <v>0</v>
       </c>
       <c r="H62" s="185">
@@ -16950,7 +17561,7 @@
       <c r="F63" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G63" s="341">
+      <c r="G63" s="324">
         <v>0</v>
       </c>
       <c r="H63" s="185">
@@ -16985,7 +17596,7 @@
       <c r="F64" s="185" t="s">
         <v>334</v>
       </c>
-      <c r="G64" s="341">
+      <c r="G64" s="324">
         <v>1</v>
       </c>
       <c r="H64" s="185">
@@ -17020,7 +17631,7 @@
       <c r="F65" s="185" t="s">
         <v>336</v>
       </c>
-      <c r="G65" s="341">
+      <c r="G65" s="324">
         <v>1</v>
       </c>
       <c r="H65" s="185">
@@ -17055,7 +17666,7 @@
       <c r="F66" s="185" t="s">
         <v>492</v>
       </c>
-      <c r="G66" s="341">
+      <c r="G66" s="324">
         <v>1</v>
       </c>
       <c r="H66" s="185">
@@ -17090,7 +17701,7 @@
       <c r="F67" s="185" t="s">
         <v>466</v>
       </c>
-      <c r="G67" s="341">
+      <c r="G67" s="324">
         <v>1</v>
       </c>
       <c r="H67" s="185">
@@ -17125,7 +17736,7 @@
       <c r="F68" s="185" t="s">
         <v>336</v>
       </c>
-      <c r="G68" s="341">
+      <c r="G68" s="324">
         <v>1</v>
       </c>
       <c r="H68" s="185">
@@ -17160,7 +17771,7 @@
       <c r="F69" s="185" t="s">
         <v>328</v>
       </c>
-      <c r="G69" s="341">
+      <c r="G69" s="324">
         <v>1</v>
       </c>
       <c r="H69" s="185">
@@ -17195,7 +17806,7 @@
       <c r="F70" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G70" s="341">
+      <c r="G70" s="324">
         <v>1</v>
       </c>
       <c r="H70" s="185">
@@ -17230,7 +17841,7 @@
       <c r="F71" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G71" s="341">
+      <c r="G71" s="324">
         <v>1</v>
       </c>
       <c r="H71" s="185">
@@ -17265,7 +17876,7 @@
       <c r="F72" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G72" s="341">
+      <c r="G72" s="324">
         <v>1</v>
       </c>
       <c r="H72" s="185">
@@ -17300,7 +17911,7 @@
       <c r="F73" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="341">
+      <c r="G73" s="324">
         <v>1</v>
       </c>
       <c r="H73" s="185">
@@ -17335,7 +17946,7 @@
       <c r="F74" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G74" s="341">
+      <c r="G74" s="324">
         <v>0</v>
       </c>
       <c r="H74" s="185">
@@ -17370,7 +17981,7 @@
       <c r="F75" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G75" s="341">
+      <c r="G75" s="324">
         <v>0</v>
       </c>
       <c r="H75" s="185">
@@ -17405,7 +18016,7 @@
       <c r="F76" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G76" s="341">
+      <c r="G76" s="324">
         <v>0</v>
       </c>
       <c r="H76" s="185">
@@ -17440,7 +18051,7 @@
       <c r="F77" s="185" t="s">
         <v>52</v>
       </c>
-      <c r="G77" s="341">
+      <c r="G77" s="324">
         <v>0</v>
       </c>
       <c r="H77" s="185">
@@ -17460,7 +18071,7 @@
       <c r="A78" s="203" t="s">
         <v>789</v>
       </c>
-      <c r="B78" s="342" t="s">
+      <c r="B78" s="325" t="s">
         <v>788</v>
       </c>
       <c r="C78" s="203" t="s">
@@ -17469,13 +18080,13 @@
       <c r="D78" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="343" t="s">
+      <c r="E78" s="326" t="s">
         <v>52</v>
       </c>
       <c r="F78" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="G78" s="344">
+      <c r="G78" s="327">
         <v>0</v>
       </c>
       <c r="H78" s="203">
@@ -17499,7 +18110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:F74"/>
   <sheetViews>
@@ -18354,7 +18965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:D17"/>
   <sheetViews>
@@ -18392,10 +19003,10 @@
       <c r="B5" s="79" t="s">
         <v>497</v>
       </c>
-      <c r="C5" s="335" t="s">
+      <c r="C5" s="341" t="s">
         <v>579</v>
       </c>
-      <c r="D5" s="336"/>
+      <c r="D5" s="342"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="24" t="s">
@@ -18476,7 +19087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B1:E23"/>
   <sheetViews>
@@ -18737,7 +19348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:Q98"/>
   <sheetViews>
@@ -21807,148 +22418,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="B1:F12"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="32.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
-        <v>644</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="82" t="s">
-        <v>773</v>
-      </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="84"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-    </row>
-    <row r="5" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="85" t="s">
-        <v>353</v>
-      </c>
-      <c r="C5" s="85" t="s">
-        <v>498</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>499</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>677</v>
-      </c>
-      <c r="F5" s="86" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="D6" s="89">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="F6" s="89">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>509</v>
-      </c>
-      <c r="F7" s="92">
-        <v>0.95240000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="87" t="s">
-        <v>508</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="89">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="F8" s="89">
-        <v>0.71430000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
-        <v>508</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="107" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="91" t="s">
-        <v>509</v>
-      </c>
-      <c r="F9" s="92">
-        <v>0.65790000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="82" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="82" t="s">
-        <v>571</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L94"/>
@@ -24778,6 +25247,148 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="B1:F12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="61" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="82" t="s">
+        <v>773</v>
+      </c>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+    </row>
+    <row r="5" spans="2:6" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="85" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>498</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>677</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="89">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="89">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>509</v>
+      </c>
+      <c r="F7" s="92">
+        <v>0.95240000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="87" t="s">
+        <v>508</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="89">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="89">
+        <v>0.71430000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>509</v>
+      </c>
+      <c r="F9" s="92">
+        <v>0.65790000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="82" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="82" t="s">
+        <v>571</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -24849,14 +25460,14 @@
       <c r="C5" s="101" t="s">
         <v>514</v>
       </c>
-      <c r="D5" s="337" t="s">
+      <c r="D5" s="343" t="s">
         <v>574</v>
       </c>
-      <c r="E5" s="338"/>
-      <c r="F5" s="337" t="s">
+      <c r="E5" s="344"/>
+      <c r="F5" s="343" t="s">
         <v>575</v>
       </c>
-      <c r="G5" s="338"/>
+      <c r="G5" s="344"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
@@ -25146,7 +25757,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:V99"/>
   <sheetViews>
@@ -26661,13 +27272,13 @@
     <sortCondition descending="1" ref="I5:I20"/>
   </sortState>
   <conditionalFormatting sqref="T28:T46">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -26740,12 +27351,12 @@
       <c r="C5" s="111" t="s">
         <v>516</v>
       </c>
-      <c r="D5" s="330" t="s">
+      <c r="D5" s="336" t="s">
         <v>515</v>
       </c>
-      <c r="E5" s="331"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
+      <c r="E5" s="337"/>
+      <c r="F5" s="340"/>
+      <c r="G5" s="340"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
@@ -26978,7 +27589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="B1:N18"/>
   <sheetViews>
@@ -30173,13 +30784,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBAA45A-CA99-4F44-A94E-0E0F1FB7CE68}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="135" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="132" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
         <v>20</v>
       </c>
@@ -30196,43 +30807,43 @@
         <v>24</v>
       </c>
       <c r="F1" s="86" t="s">
-        <v>560</v>
+        <v>811</v>
       </c>
       <c r="G1" s="191" t="s">
-        <v>551</v>
+        <v>812</v>
       </c>
       <c r="H1" s="86" t="s">
-        <v>552</v>
+        <v>813</v>
       </c>
       <c r="I1" s="86" t="s">
-        <v>576</v>
+        <v>814</v>
       </c>
       <c r="J1" s="86" t="s">
-        <v>584</v>
+        <v>815</v>
       </c>
       <c r="K1" s="86" t="s">
-        <v>586</v>
+        <v>816</v>
       </c>
       <c r="L1" s="86" t="s">
-        <v>588</v>
+        <v>817</v>
       </c>
       <c r="M1" s="86" t="s">
-        <v>590</v>
+        <v>818</v>
       </c>
       <c r="N1" s="86" t="s">
-        <v>592</v>
+        <v>819</v>
       </c>
       <c r="O1" s="86" t="s">
-        <v>594</v>
+        <v>820</v>
       </c>
       <c r="P1" s="86" t="s">
-        <v>596</v>
+        <v>821</v>
       </c>
       <c r="Q1" s="86" t="s">
-        <v>597</v>
+        <v>823</v>
       </c>
       <c r="R1" s="86" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.25">
@@ -31245,13 +31856,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B19">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EE22C2-D26B-4EDB-8801-62BE487BF21D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
@@ -32005,7 +32628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:E27"/>
   <sheetViews>
@@ -32286,7 +32909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -32323,20 +32946,20 @@
     </row>
     <row r="3" spans="1:13" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="325" t="s">
+      <c r="B3" s="331" t="s">
         <v>804</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="325"/>
-      <c r="G3" s="325"/>
-      <c r="H3" s="325"/>
-      <c r="I3" s="325"/>
-      <c r="J3" s="325"/>
-      <c r="K3" s="325"/>
-      <c r="L3" s="325"/>
-      <c r="M3" s="325"/>
+      <c r="C3" s="331"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="331"/>
+      <c r="J3" s="331"/>
+      <c r="K3" s="331"/>
+      <c r="L3" s="331"/>
+      <c r="M3" s="331"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
@@ -32349,17 +32972,17 @@
     </row>
     <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
-      <c r="B5" s="326" t="s">
+      <c r="B5" s="332" t="s">
         <v>613</v>
       </c>
-      <c r="C5" s="328" t="s">
+      <c r="C5" s="334" t="s">
         <v>600</v>
       </c>
-      <c r="D5" s="322" t="s">
+      <c r="D5" s="328" t="s">
         <v>735</v>
       </c>
-      <c r="E5" s="323"/>
-      <c r="F5" s="324"/>
+      <c r="E5" s="329"/>
+      <c r="F5" s="330"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -32368,8 +32991,8 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="327"/>
-      <c r="C6" s="329"/>
+      <c r="B6" s="333"/>
+      <c r="C6" s="335"/>
       <c r="D6" s="239" t="s">
         <v>608</v>
       </c>
@@ -33075,567 +33698,8 @@
     <mergeCell ref="C5:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G40"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.375" style="98" customWidth="1"/>
-    <col min="2" max="2" width="38.5" style="98" customWidth="1"/>
-    <col min="3" max="3" width="34.625" style="98" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="98"/>
-    <col min="5" max="5" width="38.875" style="98" customWidth="1"/>
-    <col min="6" max="6" width="35.125" style="98" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="98"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="26" t="s">
-        <v>636</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="330" t="s">
-        <v>253</v>
-      </c>
-      <c r="C5" s="331"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="332" t="s">
-        <v>254</v>
-      </c>
-      <c r="F5" s="333"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="317" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="146" t="s">
-        <v>255</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="318" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="147" t="s">
-        <v>501</v>
-      </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="148" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="149"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="58" t="s">
-        <v>475</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="167" t="s">
-        <v>537</v>
-      </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="28" t="s">
-        <v>652</v>
-      </c>
-      <c r="F9" s="166"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="165" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="166" t="s">
-        <v>583</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="242" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="166" t="s">
-        <v>582</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>476</v>
-      </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>260</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>477</v>
-      </c>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="27" t="s">
-        <v>553</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="27" t="s">
-        <v>554</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="F17" s="150"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>476</v>
-      </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>263</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>483</v>
-      </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>482</v>
-      </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>481</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>650</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>484</v>
-      </c>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="C25" s="58" t="s">
-        <v>651</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>481</v>
-      </c>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="167" t="s">
-        <v>542</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="28" t="s">
-        <v>653</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="151" t="s">
-        <v>485</v>
-      </c>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="58" t="s">
-        <v>268</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="58" t="s">
-        <v>486</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>483</v>
-      </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="152" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="152" t="s">
-        <v>487</v>
-      </c>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="82" t="s">
-        <v>544</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B35" s="82" t="s">
-        <v>545</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B36" s="82" t="s">
-        <v>729</v>
-      </c>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B37" s="82" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B38" s="82" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B39" s="82" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
-        <v>716</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/linsley_postdoc/coding_practice/data_reproduction/T_cell_characteristics_associated_with_toxicity_to_immune_checkpoint_blockade_in_patients_with_melanoma/raw_data/supp_tables.xlsx
+++ b/linsley_postdoc/coding_practice/data_reproduction/T_cell_characteristics_associated_with_toxicity_to_immune_checkpoint_blockade_in_patients_with_melanoma/raw_data/supp_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbottorff\Documents\git\bottorffdocs\linsley_postdoc\coding_practice\data_reproduction\T_cell_characteristics_associated_with_toxicity_to_immune_checkpoint_blockade_in_patients_with_melanoma\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6CEE4A-74E5-452E-A479-72D755E68423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C841D167-3855-4F80-9988-4E05E18613FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="32" r:id="rId1"/>
@@ -15355,7 +15355,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15386,7 +15386,7 @@
         <v>812</v>
       </c>
       <c r="E1" s="86" t="s">
-        <v>319</v>
+        <v>813</v>
       </c>
       <c r="F1" s="86" t="s">
         <v>816</v>
